--- a/1_Basics.xlsx
+++ b/1_Basics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA ENGINEERING\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC124AF4-FBB8-42E3-AC26-1FC0D27CD069}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66AB398-2911-4E6D-A8CA-C5242AE9CC3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" firstSheet="34" activeTab="38" xr2:uid="{559762C4-EAE6-4F43-B892-94A60CC1A342}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" xr2:uid="{559762C4-EAE6-4F43-B892-94A60CC1A342}"/>
   </bookViews>
   <sheets>
     <sheet name="1_Basic" sheetId="3" r:id="rId1"/>
@@ -71,9 +71,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Myself" guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1038" activeSheetId="20" showComments="commIndAndComment"/>
+    <customWorkbookView name="Client" guid="{E0CE8D3F-0C99-43EE-A381-8F1B9FE61CAD}" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1038" activeSheetId="20" showComments="commIndAndComment"/>
     <customWorkbookView name="Manager" guid="{878A3593-3215-4621-83B9-4BC23B0296F0}" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1038" activeSheetId="20" showComments="commIndAndComment"/>
-    <customWorkbookView name="Client" guid="{E0CE8D3F-0C99-43EE-A381-8F1B9FE61CAD}" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1038" activeSheetId="20" showComments="commIndAndComment"/>
-    <customWorkbookView name="Myself" guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1038" activeSheetId="20" showComments="commIndAndComment"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2244,10 +2244,10 @@
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="#,##0.00\ [$₽-46D]"/>
-    <numFmt numFmtId="171" formatCode="#,##0\ [$₽-46D]"/>
-    <numFmt numFmtId="172" formatCode="dddd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ [$₽-46D]"/>
+    <numFmt numFmtId="167" formatCode="#,##0\ [$₽-46D]"/>
+    <numFmt numFmtId="168" formatCode="dddd/mm/yyyy"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -2561,9 +2561,9 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2590,6 +2590,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2626,21 +2641,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3176,8 +3176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C7450A-BCD2-49E5-9AAD-D43DDCF43EFA}">
   <dimension ref="B2:K18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3188,10 +3188,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="13">
@@ -3379,7 +3379,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
+    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
       <selection activeCell="I16" sqref="I16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3389,7 +3389,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
+    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
       <selection activeCell="I16" sqref="I16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -3622,14 +3622,14 @@
       <c r="G2" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="L2" s="66" t="s">
         <v>574</v>
       </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
       <c r="U2" t="s">
         <v>227</v>
       </c>
@@ -4010,10 +4010,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="52"/>
+      <c r="B1" s="65"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -4074,7 +4074,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
+    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
       <selection activeCell="H9" sqref="H9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -4082,7 +4082,7 @@
       <selection activeCell="H9" sqref="H9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
+    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
       <selection activeCell="H9" sqref="H9"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -4111,12 +4111,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
@@ -4162,7 +4162,7 @@
         <v>5644</v>
       </c>
       <c r="E5" s="14">
-        <f t="shared" ref="E4:E9" si="1">C5-D5</f>
+        <f t="shared" ref="E5:E9" si="1">C5-D5</f>
         <v>29356</v>
       </c>
       <c r="F5">
@@ -4247,16 +4247,16 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
+    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
       <selection activeCell="G12" sqref="G12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -4264,7 +4264,7 @@
       <selection activeCell="G12" sqref="G12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
+    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
       <selection activeCell="G12" sqref="G12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -4374,7 +4374,7 @@
         <v>85</v>
       </c>
       <c r="D8" s="17">
-        <f t="shared" ref="D7:D13" si="1">C8/$C$4</f>
+        <f t="shared" ref="D8:D13" si="1">C8/$C$4</f>
         <v>0.85</v>
       </c>
       <c r="E8" s="23">
@@ -4510,7 +4510,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
+    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
       <selection activeCell="I14" sqref="I14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -4518,7 +4518,7 @@
       <selection activeCell="I14" sqref="I14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
+    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
       <selection activeCell="I14" sqref="I14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -4542,31 +4542,31 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="69" t="s">
         <v>106</v>
       </c>
       <c r="D5" s="19"/>
@@ -4588,7 +4588,7 @@
       <c r="J5" s="20"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="56"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="20">
         <v>10</v>
       </c>
@@ -4615,7 +4615,7 @@
       <c r="J6" s="21"/>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="56"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="20">
         <v>20</v>
       </c>
@@ -4642,7 +4642,7 @@
       <c r="J7" s="21"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="56"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="20">
         <v>30</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="J8" s="21"/>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="56"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="20">
         <v>40</v>
       </c>
@@ -4696,7 +4696,7 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="56"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="20">
         <v>50</v>
       </c>
@@ -4735,7 +4735,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
+    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
       <selection activeCell="R13" sqref="R13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -4743,7 +4743,7 @@
       <selection activeCell="R13" sqref="R13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
+    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
       <selection activeCell="R13" sqref="R13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -4887,7 +4887,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
+    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
       <selection activeCell="K20" sqref="K20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -4895,7 +4895,7 @@
       <selection activeCell="K20" sqref="K20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
+    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
       <selection activeCell="K20" sqref="K20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -5214,11 +5214,11 @@
       <c r="B37" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G37" s="59" t="s">
+      <c r="G37" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -5376,7 +5376,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}" topLeftCell="A25">
+    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}" topLeftCell="A25">
       <selection activeCell="K20" sqref="K20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -5384,7 +5384,7 @@
       <selection activeCell="K20" sqref="K20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}" topLeftCell="A25">
+    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}" topLeftCell="A25">
       <selection activeCell="K20" sqref="K20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -5455,7 +5455,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
+    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
       <selection activeCell="K20" sqref="K20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -5463,7 +5463,7 @@
       <selection activeCell="K20" sqref="K20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
+    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
       <selection activeCell="K20" sqref="K20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -5690,7 +5690,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
+    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
       <selection activeCell="H21" sqref="H21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -5698,7 +5698,7 @@
       <selection activeCell="H21" sqref="H21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
+    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
       <selection activeCell="H21" sqref="H21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -5765,12 +5765,12 @@
       <c r="B9" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
       <c r="J9" t="s">
         <v>73</v>
       </c>
@@ -6037,12 +6037,12 @@
       <c r="F19" t="s">
         <v>589</v>
       </c>
-      <c r="J19" s="53" t="s">
+      <c r="J19" s="66" t="s">
         <v>591</v>
       </c>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
@@ -6185,7 +6185,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
+    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
       <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -6193,7 +6193,7 @@
       <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
+    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
       <selection activeCell="D4" sqref="D4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -6518,7 +6518,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
+    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
       <selection activeCell="G16" sqref="G16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -6526,7 +6526,7 @@
       <selection activeCell="G16" sqref="G16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
+    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
       <selection activeCell="G16" sqref="G16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -6919,7 +6919,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}" topLeftCell="B1">
+    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}" topLeftCell="B1">
       <selection activeCell="M6" sqref="M6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -6927,7 +6927,7 @@
       <selection activeCell="M6" sqref="M6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}" topLeftCell="B1">
+    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}" topLeftCell="B1">
       <selection activeCell="M6" sqref="M6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -6939,7 +6939,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94B0032-A785-4642-A071-FEA423841AD0}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
@@ -6989,7 +6989,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
+    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
       <selection activeCell="F17" sqref="F17"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6999,7 +6999,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
+    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
       <selection activeCell="F17" sqref="F17"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -7150,16 +7150,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}" hiddenColumns="1" topLeftCell="B1">
-      <selection activeCell="K11" sqref="K11"/>
+    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
+      <selection activeCell="N11" sqref="N11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{E0CE8D3F-0C99-43EE-A381-8F1B9FE61CAD}" hiddenColumns="1">
       <selection activeCell="L13" sqref="L13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
-      <selection activeCell="N11" sqref="N11"/>
+    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}" hiddenColumns="1" topLeftCell="B1">
+      <selection activeCell="K11" sqref="K11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -7494,42 +7494,42 @@
       </c>
       <c r="C12" s="32">
         <f ca="1">IF(B2&gt;C2,TODAY(),TODAY()+10)</f>
-        <v>45007</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="73" t="s">
         <v>407</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="74"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7994,7 +7994,7 @@
     <row r="20" spans="10:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
+    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
       <selection activeCell="N15" sqref="N15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8004,7 +8004,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
+    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
       <selection activeCell="N15" sqref="N15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId3"/>
@@ -8207,10 +8207,10 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="66" t="s">
         <v>447</v>
       </c>
-      <c r="C19" s="53"/>
+      <c r="C19" s="66"/>
       <c r="H19">
         <v>4</v>
       </c>
@@ -8630,13 +8630,13 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="52" t="s">
         <v>472</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="52" t="s">
         <v>397</v>
       </c>
     </row>
@@ -8645,9 +8645,9 @@
         <v>473</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="65">
+      <c r="D9" s="53">
         <f ca="1">TODAY()</f>
-        <v>44997</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
@@ -8655,9 +8655,9 @@
         <v>474</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="66">
+      <c r="D10" s="54">
         <f ca="1">NOW()</f>
-        <v>44997.386015625001</v>
+        <v>45002.798984837966</v>
       </c>
       <c r="F10" t="s">
         <v>619</v>
@@ -8704,7 +8704,7 @@
         <v>478</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="65">
+      <c r="D14" s="53">
         <f>DATE(D13,D12,D11)</f>
         <v>39480</v>
       </c>
@@ -8715,51 +8715,51 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="55">
         <f ca="1">TODAY()</f>
-        <v>44997</v>
+        <v>45002</v>
       </c>
       <c r="D17" s="13"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="52" t="s">
         <v>621</v>
       </c>
       <c r="C18" s="32">
         <f ca="1">C17+D18</f>
-        <v>45002</v>
+        <v>45007</v>
       </c>
       <c r="D18" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="52" t="s">
         <v>621</v>
       </c>
       <c r="C19" s="32">
         <f ca="1">C18-D19</f>
-        <v>44992</v>
+        <v>44997</v>
       </c>
       <c r="D19" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="56" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="52" t="s">
         <v>337</v>
       </c>
       <c r="C22" s="32">
         <f ca="1">TODAY()</f>
-        <v>44997</v>
+        <v>45002</v>
       </c>
       <c r="D22" s="13"/>
     </row>
@@ -8769,7 +8769,7 @@
       </c>
       <c r="C23" s="32">
         <f ca="1">EDATE(C22,10)</f>
-        <v>45303</v>
+        <v>45308</v>
       </c>
       <c r="D23" s="13">
         <v>10</v>
@@ -8781,7 +8781,7 @@
       </c>
       <c r="C24" s="32">
         <f ca="1">EDATE(C23,-10)</f>
-        <v>44997</v>
+        <v>45002</v>
       </c>
       <c r="D24" s="13">
         <v>-10</v>
@@ -8793,28 +8793,28 @@
       </c>
       <c r="C27" s="32">
         <f ca="1">TODAY()</f>
-        <v>44997</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="52" t="s">
         <v>480</v>
       </c>
       <c r="C28" s="39">
         <f ca="1">EDATE(C27,120)</f>
-        <v>48650</v>
+        <v>48655</v>
       </c>
       <c r="D28" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="52" t="s">
         <v>480</v>
       </c>
       <c r="C29" s="39">
         <f ca="1">EDATE(C28,-120)</f>
-        <v>44997</v>
+        <v>45002</v>
       </c>
       <c r="D29" s="13">
         <v>-10</v>
@@ -8858,7 +8858,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="52" t="s">
         <v>626</v>
       </c>
       <c r="C10" s="32">
@@ -8866,7 +8866,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="52" t="s">
         <v>627</v>
       </c>
       <c r="C11" s="32">
@@ -8874,13 +8874,13 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="66" t="s">
         <v>628</v>
       </c>
-      <c r="G13" s="53"/>
+      <c r="G13" s="66"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="52" t="s">
         <v>482</v>
       </c>
       <c r="C14" s="13">
@@ -8895,10 +8895,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="52" t="s">
         <v>630</v>
       </c>
-      <c r="C15" s="69">
+      <c r="C15" s="57">
         <f>NETWORKDAYS(C10,C11,F14:F15)</f>
         <v>260</v>
       </c>
@@ -8910,7 +8910,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="52" t="s">
         <v>632</v>
       </c>
       <c r="C16" s="13">
@@ -8926,41 +8926,41 @@
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="39">
         <f ca="1">TODAY()</f>
-        <v>44997</v>
-      </c>
-      <c r="D23" s="70">
+        <v>45002</v>
+      </c>
+      <c r="D23" s="58">
         <f ca="1">TODAY()</f>
-        <v>44997</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="39">
         <f t="shared" ref="C24:C28" ca="1" si="0">TODAY()</f>
-        <v>44997</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>44997</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C26" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>44997</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C27" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>44997</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C28" s="39">
         <f t="shared" ca="1" si="0"/>
-        <v>44997</v>
+        <v>45002</v>
       </c>
     </row>
   </sheetData>
@@ -9002,77 +9002,77 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="59" t="s">
         <v>637</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="59" t="s">
         <v>638</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="60" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="73">
+      <c r="B8" s="61">
         <v>36600</v>
       </c>
       <c r="C8" s="32">
         <f ca="1">TODAY()</f>
-        <v>44997</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="52" t="s">
         <v>640</v>
       </c>
-      <c r="C11" s="74">
+      <c r="C11" s="62">
         <f ca="1">DATEDIF(B8,C8,"Y")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="52" t="s">
         <v>641</v>
       </c>
-      <c r="C12" s="74">
+      <c r="C12" s="62">
         <f ca="1">DATEDIF(B8,C8,"M")</f>
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="52" t="s">
         <v>642</v>
       </c>
-      <c r="C13" s="74">
+      <c r="C13" s="62">
         <f ca="1">DATEDIF(B8,C8,"D")</f>
-        <v>8397</v>
+        <v>8402</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="52" t="s">
         <v>643</v>
       </c>
-      <c r="C16" s="74">
+      <c r="C16" s="62">
         <f ca="1">DATEDIF(B8,C8,"Y")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="52" t="s">
         <v>644</v>
       </c>
-      <c r="C17" s="74">
+      <c r="C17" s="62">
         <f ca="1">DATEDIF(B8,C8,"MD")</f>
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="74">
+      <c r="C18" s="62">
         <f ca="1">DATEDIF(B8,C8,"MD")</f>
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -9154,7 +9154,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44997</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -9241,7 +9241,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44997</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -9319,11 +9319,11 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44997</v>
+        <v>45002</v>
       </c>
       <c r="B2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44997</v>
+        <v>45002</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -9376,7 +9376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BDEE66-CA9C-4657-9A7D-1319DD8C73B3}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -10056,7 +10056,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
+    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
       <selection activeCell="A6" sqref="A6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -10064,7 +10064,7 @@
       <selection activeCell="A6" sqref="A6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
+    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
       <selection activeCell="A6" sqref="A6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -10546,7 +10546,7 @@
       <c r="A2" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="62"/>
+      <c r="J2" s="50"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -10558,7 +10558,7 @@
       <c r="E3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="63">
+      <c r="J3" s="51">
         <v>10</v>
       </c>
       <c r="L3" s="12">
@@ -10578,7 +10578,7 @@
       <c r="G4" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="63">
+      <c r="J4" s="51">
         <v>20</v>
       </c>
       <c r="L4" s="12">
@@ -10601,7 +10601,7 @@
       <c r="G5">
         <v>678</v>
       </c>
-      <c r="J5" s="63">
+      <c r="J5" s="51">
         <v>30</v>
       </c>
       <c r="L5" s="12">
@@ -10616,10 +10616,10 @@
         <f>d</f>
         <v>#NAME?</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="63">
+      <c r="J6" s="51">
         <v>40</v>
       </c>
       <c r="L6" s="12">
@@ -10633,8 +10633,8 @@
       <c r="G7">
         <v>78.900000000000006</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="J7" s="63">
+      <c r="H7" s="67"/>
+      <c r="J7" s="51">
         <v>50</v>
       </c>
       <c r="L7" s="12">
@@ -10645,8 +10645,8 @@
       <c r="E8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="54"/>
-      <c r="J8" s="63">
+      <c r="H8" s="67"/>
+      <c r="J8" s="51">
         <v>60</v>
       </c>
       <c r="L8" s="12">
@@ -10657,8 +10657,8 @@
       <c r="E9" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="54"/>
-      <c r="J9" s="63">
+      <c r="H9" s="67"/>
+      <c r="J9" s="51">
         <v>70</v>
       </c>
       <c r="L9" s="12">
@@ -10669,8 +10669,8 @@
       <c r="E10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="54"/>
-      <c r="J10" s="63">
+      <c r="H10" s="67"/>
+      <c r="J10" s="51">
         <v>80</v>
       </c>
     </row>
@@ -10678,20 +10678,20 @@
       <c r="E11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="J11" s="63">
+      <c r="H11" s="67"/>
+      <c r="J11" s="51">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H12" s="54"/>
+      <c r="H12" s="67"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H13" s="54"/>
+      <c r="H13" s="67"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
+    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
       <selection activeCell="H19" sqref="H19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -10699,7 +10699,7 @@
       <selection activeCell="H19" sqref="H19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BB8F8BB8-BE80-40B1-B14B-772F070AC1BE}">
+    <customSheetView guid="{878A3593-3215-4621-83B9-4BC23B0296F0}">
       <selection activeCell="H19" sqref="H19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
